--- a/biology/Microbiologie/Plesiotrichopidae/Plesiotrichopidae.xlsx
+++ b/biology/Microbiologie/Plesiotrichopidae/Plesiotrichopidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Plesiotrichopidae sont une famille de Ciliés de la classe des Cyrtophoria et de l’ordre des Dysteriida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Plesiotrichopus, de plesio-, « voisin proche », trich-, (du grec ancien θριξ / thrix), « cheveu, poil, soie, cil » et du suffixe grec -opus, « à l'aspect de ». Le préfixe plesio- est, peut-être, à rapprocher de la plésiomorphie qui est l'apparition d'un nouveau trait chez une espèce.
 </t>
@@ -542,12 +556,14 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (14 décembre 2022)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (14 décembre 2022) :
 Atelepithites Deroux, 1976
 Pithites Deroux &amp; Dragesco, 1968
-Plesiotrichopus Fauré-Fremiet, 1964[2]
+Plesiotrichopus Fauré-Fremiet, 1964
 Trochochilodon Deroux, 1976</t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Plesiotrichopidae Deroux, 1976[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Plesiotrichopidae Deroux, 1976.
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Deroux G. (1976). Le plan cortical des Cyrtophorida unité d'expression et marges de variabilité. I. Le cas des Plesiotrichopidae, fam. nov., dans la nouvelle systématique. — Protistologica  (ISSN 0033-1821) 12: 469-481.</t>
         </is>
